--- a/demultiplexer2/data/primersets/fwh2_primerset.xlsx
+++ b/demultiplexer2/data/primersets/fwh2_primerset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\demultiplexer2\data\primersets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30410D95-8CBE-40C7-BDB8-E013DBD89496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02727BB1-35B0-4897-83DF-7C7EFBCBF66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_information" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
